--- a/研究计算/円形立坑計算/D6.xlsx
+++ b/研究计算/円形立坑計算/D6.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6F84B494-F1FD-4290-840D-10B0A26C3855}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8991EFDF-BD70-4990-915F-CE07692F0AEC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4416" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.2H" sheetId="1" r:id="rId1"/>
@@ -380,16 +380,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -440,7 +440,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -462,7 +462,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -484,7 +484,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -506,7 +506,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -528,7 +528,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -550,7 +550,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -572,7 +572,7 @@
         <v>57500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.5</v>
       </c>
@@ -594,7 +594,7 @@
         <v>67500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -610,7 +610,7 @@
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="E11"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="E12"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>0</v>
       </c>
@@ -646,15 +646,15 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16"/>
       <c r="F16"/>
       <c r="K16" s="2">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17"/>
       <c r="F17"/>
       <c r="K17" s="2">
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="K18" s="2">
         <v>37500</v>
       </c>
@@ -697,12 +697,12 @@
       <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -755,7 +755,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -776,7 +776,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -797,7 +797,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -818,7 +818,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -839,7 +839,7 @@
         <v>32500</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -860,7 +860,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -881,7 +881,7 @@
         <v>57500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -901,7 +901,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -915,7 +915,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -929,7 +929,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.5</v>
       </c>
@@ -943,7 +943,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.5</v>
       </c>
@@ -951,7 +951,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -967,7 +967,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -983,7 +983,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -991,7 +991,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -999,7 +999,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>30000</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>30000</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>30000</v>
       </c>
@@ -1041,16 +1041,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A2618-DD8C-4FA3-B383-345AEFAE8B91}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1090,7 +1092,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1105,7 +1107,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1120,7 +1122,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.5</v>
       </c>
@@ -1135,7 +1137,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.5</v>
       </c>
@@ -1150,7 +1152,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1165,7 +1167,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1180,7 +1182,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1195,7 +1197,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1237,7 +1239,13 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20000</v>
+      </c>
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1245,7 +1253,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -1253,7 +1261,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>27500</v>
       </c>
@@ -1261,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>27500</v>
       </c>
@@ -1269,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>27500</v>
       </c>
@@ -1288,15 +1296,15 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1352,7 +1360,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1367,7 +1375,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1382,7 +1390,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1397,7 +1405,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1412,7 +1420,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1427,7 +1435,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -1442,7 +1450,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1456,7 +1464,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1470,7 +1478,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1484,7 +1492,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.5</v>
       </c>
@@ -1498,7 +1506,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>3</v>
       </c>
@@ -1506,7 +1514,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>1</v>
       </c>
@@ -1514,7 +1522,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -1522,7 +1530,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1530,7 +1538,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>1</v>
       </c>
@@ -1538,7 +1546,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -1546,7 +1554,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>0.5</v>
       </c>
@@ -1554,7 +1562,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>27500</v>
       </c>
@@ -1562,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>27500</v>
       </c>
@@ -1570,7 +1578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>27500</v>
       </c>
